--- a/data/evaluation/evaluation_Center_Autumn_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.4993244486994</v>
+        <v>280.1808485449736</v>
       </c>
       <c r="C4" t="n">
-        <v>124897.7523893734</v>
+        <v>139742.2651788913</v>
       </c>
       <c r="D4" t="n">
-        <v>353.408761053505</v>
+        <v>373.8211673767168</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4377696601343637</v>
+        <v>-0.6086533606008686</v>
       </c>
     </row>
     <row r="5">
